--- a/Actual_Air_Import_Shipment_Tracking.xlsx
+++ b/Actual_Air_Import_Shipment_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799235A-E87A-4BCD-9713-745425FAB96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30D8DE-D487-41A6-B377-C89D4C4A4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,12 +1864,6 @@
     <t>Pick_up_Date_at_Origin</t>
   </si>
   <si>
-    <t>HBL_MBL_Draft</t>
-  </si>
-  <si>
-    <t>Bill_of_Entry_Checklist</t>
-  </si>
-  <si>
     <t>Completed_CHA</t>
   </si>
   <si>
@@ -1895,6 +1889,12 @@
   </si>
   <si>
     <t>Pre_Alert</t>
+  </si>
+  <si>
+    <t>Bill_of_Entry_Check_list</t>
+  </si>
+  <si>
+    <t>HBL_and_MBL_Draft</t>
   </si>
 </sst>
 </file>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,8 +2409,8 @@
     <col min="9" max="9" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" style="10" bestFit="1" customWidth="1"/>
@@ -2466,37 +2466,37 @@
         <v>613</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">

--- a/Actual_Air_Import_Shipment_Tracking.xlsx
+++ b/Actual_Air_Import_Shipment_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30D8DE-D487-41A6-B377-C89D4C4A4BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6AB932-B6BF-4366-B014-D86A8FA3E49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
